--- a/Web page.xlsx
+++ b/Web page.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA KAMPUS LEO\PKL\RFID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WEB_RFID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB8A86-406F-4B01-B227-60B3F99646E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B6057-0459-417D-B61E-FAC2EEF0116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5595A739-FB65-4DB8-8502-781AC575B240}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5595A739-FB65-4DB8-8502-781AC575B240}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Type</t>
   </si>
@@ -174,13 +175,58 @@
   </si>
   <si>
     <t>1. Status terdiri dari 2, AVAILABLE (hijau) In DELIVERY (orange)</t>
+  </si>
+  <si>
+    <t>Schedule Pengembangan RFID Reader</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Kegiatan</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Minggu</t>
+  </si>
+  <si>
+    <t>Agu-22</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>User Requirements</t>
+  </si>
+  <si>
+    <t>PKL MIS</t>
+  </si>
+  <si>
+    <t>Design and Planning</t>
+  </si>
+  <si>
+    <t>System Developments</t>
+  </si>
+  <si>
+    <t>Implementation and Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +242,20 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +268,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -427,29 +491,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,20 +603,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,6 +616,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -487,42 +660,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,11 +1040,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54760070-EECB-4952-9197-A8B4FF0E7069}">
+  <dimension ref="C1:J10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="3:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="3:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="50">
+        <v>44743</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="40">
+        <v>1</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+    </row>
+    <row r="8" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="40">
+        <v>3</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="40">
+        <v>4</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C1:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84902ED4-9827-4B37-B789-242D203BF268}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,52 +1243,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="I1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="N1" s="33" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="S1" s="33" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="S1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="35"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="1"/>
@@ -916,72 +1297,72 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="19" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="11"/>
-      <c r="N4" s="19" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="11"/>
-      <c r="S4" s="19" t="s">
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="7"/>
+      <c r="S4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="25"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>192</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>192</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="I6" s="21" t="s">
+      <c r="G6" s="10"/>
+      <c r="I6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -990,32 +1371,32 @@
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
+      <c r="L6" s="10"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="9">
         <v>193</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="9">
         <v>193</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="I7" s="22">
+      <c r="G7" s="10"/>
+      <c r="I7" s="15">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1024,34 +1405,34 @@
       <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="N7" s="12" t="s">
+      <c r="L7" s="10"/>
+      <c r="N7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>1230</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="9">
         <v>1230</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="I8" s="22">
+      <c r="G8" s="10"/>
+      <c r="I8" s="15">
         <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1060,28 +1441,28 @@
       <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="N8" s="24" t="s">
+      <c r="L8" s="10"/>
+      <c r="N8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="15"/>
-      <c r="S8" s="24" t="s">
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="10"/>
+      <c r="S8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="26"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="31"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="22">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="15">
         <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1090,30 +1471,30 @@
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="N9" s="21">
+      <c r="L9" s="10"/>
+      <c r="N9" s="14">
         <v>1</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="15"/>
-      <c r="S9" s="27">
+      <c r="O9" s="36"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="17">
         <v>1</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="28"/>
+      <c r="U9" s="37"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="22">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="15">
         <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1122,30 +1503,30 @@
       <c r="K10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="N10" s="21">
+      <c r="L10" s="10"/>
+      <c r="N10" s="14">
         <v>2</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="15"/>
-      <c r="S10" s="27">
+      <c r="O10" s="36"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="10"/>
+      <c r="S10" s="17">
         <v>2</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="28"/>
+      <c r="U10" s="37"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="22">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="15">
         <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1154,24 +1535,24 @@
       <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="N11" s="21">
+      <c r="L11" s="10"/>
+      <c r="N11" s="14">
         <v>3</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="15"/>
-      <c r="S11" s="29" t="s">
+      <c r="O11" s="36"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="10"/>
+      <c r="S11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="7"/>
-      <c r="U11" s="15" t="s">
+      <c r="T11" s="33"/>
+      <c r="U11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1186,8 +1567,8 @@
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="I12" s="22">
+      <c r="G12" s="10"/>
+      <c r="I12" s="15">
         <v>6</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1196,19 +1577,19 @@
       <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="N12" s="21">
+      <c r="L12" s="10"/>
+      <c r="N12" s="14">
         <v>4</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="15"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1216,8 +1597,8 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="15"/>
-      <c r="I13" s="22">
+      <c r="G13" s="10"/>
+      <c r="I13" s="15">
         <v>7</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1226,26 +1607,26 @@
       <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="N13" s="21">
+      <c r="L13" s="10"/>
+      <c r="N13" s="14">
         <v>5</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="15"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="10"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="22">
+      <c r="G14" s="10"/>
+      <c r="I14" s="15">
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1254,28 +1635,28 @@
       <c r="K14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="N14" s="21">
+      <c r="L14" s="10"/>
+      <c r="N14" s="14">
         <v>6</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="15"/>
-      <c r="S14" s="24" t="s">
+      <c r="O14" s="36"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="10"/>
+      <c r="S14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="26"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="31"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="22">
+      <c r="G15" s="10"/>
+      <c r="I15" s="15">
         <v>9</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -1284,30 +1665,30 @@
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="N15" s="21">
+      <c r="L15" s="10"/>
+      <c r="N15" s="14">
         <v>7</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="15"/>
-      <c r="S15" s="27">
+      <c r="O15" s="36"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="10"/>
+      <c r="S15" s="17">
         <v>1</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="28"/>
+      <c r="U15" s="37"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="22">
+      <c r="G16" s="10"/>
+      <c r="I16" s="15">
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1316,30 +1697,30 @@
       <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="N16" s="21">
+      <c r="L16" s="10"/>
+      <c r="N16" s="14">
         <v>8</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="15"/>
-      <c r="S16" s="27">
+      <c r="O16" s="36"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="10"/>
+      <c r="S16" s="17">
         <v>2</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="28"/>
+      <c r="U16" s="37"/>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="15"/>
-      <c r="I17" s="22">
+      <c r="G17" s="10"/>
+      <c r="I17" s="15">
         <v>11</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1348,30 +1729,30 @@
       <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="N17" s="21">
+      <c r="L17" s="10"/>
+      <c r="N17" s="14">
         <v>9</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="15"/>
-      <c r="S17" s="30" t="s">
+      <c r="O17" s="36"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="10"/>
+      <c r="S17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="31"/>
-      <c r="U17" s="18" t="s">
+      <c r="T17" s="35"/>
+      <c r="U17" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="15"/>
-      <c r="I18" s="22">
+      <c r="G18" s="10"/>
+      <c r="I18" s="15">
         <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1380,23 +1761,23 @@
       <c r="K18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14" t="s">
+      <c r="L18" s="10"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="15"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="15"/>
-      <c r="I19" s="22">
+      <c r="G19" s="10"/>
+      <c r="I19" s="15">
         <v>13</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1405,21 +1786,21 @@
       <c r="K19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15"/>
+      <c r="L19" s="10"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="15"/>
-      <c r="I20" s="22">
+      <c r="G20" s="10"/>
+      <c r="I20" s="15">
         <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -1428,21 +1809,21 @@
       <c r="K20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
+      <c r="L20" s="10"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="15"/>
-      <c r="I21" s="22">
+      <c r="G21" s="10"/>
+      <c r="I21" s="15">
         <v>15</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -1451,117 +1832,99 @@
       <c r="K21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
+      <c r="L21" s="10"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="15"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
+      <c r="G22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="14" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="14" t="s">
+      <c r="L23" s="10"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q23" s="15"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="18" t="s">
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O17:P17"/>
@@ -1571,6 +1934,24 @@
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
